--- a/Logistics/LectureSchedule/Lecture_Schedule_SS2022.xlsx
+++ b/Logistics/LectureSchedule/Lecture_Schedule_SS2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rdrews/Nextcloud/esd_teach/geophyscis_BSc_SoSe22/Logistics/LectureSchedule/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F9CE70-9D13-D649-AAC2-B448F2A6DEBF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E5307F-7270-C644-9805-C956F9A8A809}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1683,8 +1683,8 @@
   </sheetPr>
   <dimension ref="A1:N81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1855,7 +1855,7 @@
         <v>12</v>
       </c>
       <c r="E15" s="21">
-        <v>44307</v>
+        <v>44672</v>
       </c>
       <c r="F15" s="27" t="s">
         <v>65</v>
@@ -1901,7 +1901,7 @@
       </c>
       <c r="E17" s="24">
         <f>E15+7</f>
-        <v>44314</v>
+        <v>44679</v>
       </c>
       <c r="F17" s="9" t="s">
         <v>61</v>
@@ -1945,7 +1945,7 @@
       </c>
       <c r="E19" s="24">
         <f t="shared" si="0"/>
-        <v>44321</v>
+        <v>44686</v>
       </c>
       <c r="F19" s="26" t="s">
         <v>43</v>
@@ -1987,7 +1987,7 @@
       </c>
       <c r="E21" s="24">
         <f t="shared" si="0"/>
-        <v>44328</v>
+        <v>44693</v>
       </c>
       <c r="F21" s="26" t="s">
         <v>45</v>
@@ -2032,7 +2032,7 @@
       </c>
       <c r="E23" s="24">
         <f t="shared" si="0"/>
-        <v>44335</v>
+        <v>44700</v>
       </c>
       <c r="F23" s="26" t="s">
         <v>46</v>
@@ -2078,7 +2078,7 @@
       </c>
       <c r="E25" s="22">
         <f t="shared" si="0"/>
-        <v>44342</v>
+        <v>44707</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>14</v>
@@ -2123,7 +2123,7 @@
       </c>
       <c r="E27" s="24">
         <f t="shared" si="0"/>
-        <v>44349</v>
+        <v>44714</v>
       </c>
       <c r="F27" s="26" t="s">
         <v>49</v>
@@ -2163,7 +2163,7 @@
       </c>
       <c r="E29" s="22">
         <f t="shared" si="0"/>
-        <v>44356</v>
+        <v>44721</v>
       </c>
       <c r="F29" s="9"/>
       <c r="G29" s="6" t="s">
@@ -2212,7 +2212,7 @@
       </c>
       <c r="E31" s="22">
         <f t="shared" si="0"/>
-        <v>44363</v>
+        <v>44728</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>5</v>
@@ -2256,7 +2256,7 @@
       </c>
       <c r="E33" s="24">
         <f t="shared" si="0"/>
-        <v>44370</v>
+        <v>44735</v>
       </c>
       <c r="F33" s="28" t="s">
         <v>53</v>
@@ -2300,7 +2300,7 @@
       </c>
       <c r="E35" s="24">
         <f t="shared" si="0"/>
-        <v>44377</v>
+        <v>44742</v>
       </c>
       <c r="F35" s="27" t="s">
         <v>51</v>
@@ -2345,7 +2345,7 @@
       </c>
       <c r="E37" s="24">
         <f t="shared" si="0"/>
-        <v>44384</v>
+        <v>44749</v>
       </c>
       <c r="F37" s="26" t="s">
         <v>54</v>
@@ -2393,7 +2393,7 @@
       </c>
       <c r="E39" s="24">
         <f t="shared" si="0"/>
-        <v>44391</v>
+        <v>44756</v>
       </c>
       <c r="F39" s="26" t="s">
         <v>56</v>
@@ -2437,7 +2437,7 @@
       </c>
       <c r="E41" s="24">
         <f t="shared" si="0"/>
-        <v>44398</v>
+        <v>44763</v>
       </c>
       <c r="F41" s="12" t="s">
         <v>59</v>
@@ -2479,7 +2479,7 @@
       </c>
       <c r="E43" s="24">
         <f t="shared" si="0"/>
-        <v>44405</v>
+        <v>44770</v>
       </c>
       <c r="F43" s="27" t="s">
         <v>58</v>
@@ -2498,8 +2498,7 @@
         <v>67</v>
       </c>
       <c r="E44" s="39">
-        <f t="shared" si="0"/>
-        <v>44775</v>
+        <v>44774</v>
       </c>
       <c r="F44" s="40" t="s">
         <v>68</v>

--- a/Logistics/LectureSchedule/Lecture_Schedule_SS2022.xlsx
+++ b/Logistics/LectureSchedule/Lecture_Schedule_SS2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rdrews/Nextcloud/esd_teach/geophyscis_BSc_SoSe22/Logistics/LectureSchedule/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E5307F-7270-C644-9805-C956F9A8A809}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AC2B91A-A3F3-7041-AD0C-5708BC9AA006}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38520" windowHeight="26700" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lecture_Schedule_SS2022" sheetId="1" r:id="rId1"/>
@@ -106,9 +106,6 @@
     <t>Hint</t>
   </si>
   <si>
-    <t>Gravitational Force</t>
-  </si>
-  <si>
     <t>Gravitational Force of a sphere with homogenous density, inside and outside</t>
   </si>
   <si>
@@ -260,6 +257,9 @@
   </si>
   <si>
     <t>Seismic Exercises 05-12</t>
+  </si>
+  <si>
+    <t>Why use gravity for exploration ? Gravitational Force?</t>
   </si>
 </sst>
 </file>
@@ -1319,8 +1319,8 @@
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1683,7 +1683,7 @@
   </sheetPr>
   <dimension ref="A1:N81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="160" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="160" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -1760,10 +1760,10 @@
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="37" t="s">
         <v>69</v>
-      </c>
-      <c r="E10" s="37" t="s">
-        <v>70</v>
       </c>
       <c r="H10"/>
       <c r="J10"/>
@@ -1793,13 +1793,13 @@
     </row>
     <row r="13" spans="1:12" s="1" customFormat="1" ht="17">
       <c r="A13" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>6</v>
@@ -1837,7 +1837,7 @@
         <v>44670</v>
       </c>
       <c r="F14" s="26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G14" s="8"/>
       <c r="H14"/>
@@ -1858,7 +1858,7 @@
         <v>44672</v>
       </c>
       <c r="F15" s="27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G15" s="8"/>
       <c r="H15"/>
@@ -1904,7 +1904,7 @@
         <v>44679</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G17" s="8"/>
       <c r="H17"/>
@@ -1924,11 +1924,11 @@
         <v>7</v>
       </c>
       <c r="E18" s="24">
-        <f t="shared" ref="E18:E44" si="0">E16+7</f>
+        <f t="shared" ref="E18:E43" si="0">E16+7</f>
         <v>44684</v>
       </c>
       <c r="F18" s="26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G18" s="6"/>
     </row>
@@ -1948,7 +1948,7 @@
         <v>44686</v>
       </c>
       <c r="F19" s="26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G19" s="6"/>
     </row>
@@ -1970,7 +1970,7 @@
         <v>44691</v>
       </c>
       <c r="F20" s="26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G20" s="8"/>
     </row>
@@ -1990,7 +1990,7 @@
         <v>44693</v>
       </c>
       <c r="F21" s="26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G21" s="8"/>
       <c r="H21" s="29"/>
@@ -2013,7 +2013,7 @@
         <v>44698</v>
       </c>
       <c r="F22" s="26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G22" s="8"/>
       <c r="H22" s="29"/>
@@ -2035,11 +2035,11 @@
         <v>44700</v>
       </c>
       <c r="F23" s="26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G23" s="8"/>
       <c r="H23" s="29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="17">
@@ -2060,11 +2060,11 @@
         <v>44705</v>
       </c>
       <c r="F24" s="26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G24" s="8"/>
       <c r="H24" s="29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -2084,7 +2084,7 @@
         <v>14</v>
       </c>
       <c r="H25" s="29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="17">
@@ -2105,7 +2105,7 @@
         <v>44712</v>
       </c>
       <c r="F26" s="26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G26" s="8"/>
       <c r="H26" s="29"/>
@@ -2126,7 +2126,7 @@
         <v>44714</v>
       </c>
       <c r="F27" s="26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G27" s="8"/>
       <c r="H27" s="29"/>
@@ -2148,7 +2148,7 @@
         <v>15</v>
       </c>
       <c r="H28" s="29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N28" s="2"/>
     </row>
@@ -2170,7 +2170,7 @@
         <v>15</v>
       </c>
       <c r="H29" s="29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I29" s="12"/>
       <c r="N29" s="12"/>
@@ -2193,11 +2193,11 @@
         <v>44726</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G30" s="34"/>
       <c r="H30" s="29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N30" s="15"/>
     </row>
@@ -2238,7 +2238,7 @@
         <v>44733</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G32" s="6"/>
       <c r="H32" s="29"/>
@@ -2259,7 +2259,7 @@
         <v>44735</v>
       </c>
       <c r="F33" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G33" s="8"/>
       <c r="H33" s="29"/>
@@ -2282,7 +2282,7 @@
         <v>44740</v>
       </c>
       <c r="F34" s="27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G34" s="8"/>
       <c r="H34" s="29"/>
@@ -2303,7 +2303,7 @@
         <v>44742</v>
       </c>
       <c r="F35" s="27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G35" s="16"/>
     </row>
@@ -2325,11 +2325,11 @@
         <v>44747</v>
       </c>
       <c r="F36" s="27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G36" s="8"/>
       <c r="H36" s="30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="17">
@@ -2348,11 +2348,11 @@
         <v>44749</v>
       </c>
       <c r="F37" s="26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G37" s="6"/>
       <c r="H37" s="30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="17">
@@ -2373,11 +2373,11 @@
         <v>44754</v>
       </c>
       <c r="F38" s="26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G38" s="6"/>
       <c r="H38" s="30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="17">
@@ -2396,7 +2396,7 @@
         <v>44756</v>
       </c>
       <c r="F39" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G39" s="6"/>
       <c r="H39" s="30"/>
@@ -2419,7 +2419,7 @@
         <v>44761</v>
       </c>
       <c r="F40" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G40" s="6"/>
       <c r="H40" s="30"/>
@@ -2440,7 +2440,7 @@
         <v>44763</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G41" s="16"/>
     </row>
@@ -2462,7 +2462,7 @@
         <v>44768</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G42" s="16"/>
       <c r="H42" s="30"/>
@@ -2482,7 +2482,7 @@
         <v>44770</v>
       </c>
       <c r="F43" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H43" s="30"/>
     </row>
@@ -2495,16 +2495,16 @@
         <v>29</v>
       </c>
       <c r="D44" s="36" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E44" s="39">
         <v>44774</v>
       </c>
       <c r="F44" s="40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G44" s="38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -2586,21 +2586,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{303FA1B1-ABE2-3D45-AC81-DF087875A14C}">
   <dimension ref="A2:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15:D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="18.6640625" customWidth="1"/>
     <col min="3" max="3" width="40.5" style="9" customWidth="1"/>
-    <col min="4" max="4" width="60" style="9" customWidth="1"/>
+    <col min="4" max="4" width="74.83203125" style="9" customWidth="1"/>
     <col min="5" max="5" width="23.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="17">
@@ -2614,13 +2614,13 @@
         <v>22</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="17">
+    <row r="4" spans="1:5" ht="34">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2628,30 +2628,30 @@
         <v>20</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="34">
       <c r="C5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
         <v>25</v>
-      </c>
-      <c r="E5" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="17">
       <c r="C6" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="17">
       <c r="C7" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17">
       <c r="C8" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="34">
@@ -2659,13 +2659,13 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>40</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="34">
@@ -2676,22 +2676,22 @@
         <v>19</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="17">
       <c r="C11" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="17">
       <c r="C12" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="17">
       <c r="C13" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="51">
@@ -2699,15 +2699,15 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>36</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="B15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
